--- a/Data/RentalAssistance.xlsx
+++ b/Data/RentalAssistance.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emmyescanlar/Dropbox (University of Oregon)/RAPID-EC/Data Management R3/EE_R3 Question Bank/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{41D5677E-FB6F-FD4E-BC48-26D3A68F4A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{49113600-50DA-1F49-9DE9-EFDB102A27A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="15760" windowHeight="16080" xr2:uid="{EBFABD83-7C37-F648-AEA2-39207326CD30}"/>
+    <workbookView xWindow="9560" yWindow="500" windowWidth="15760" windowHeight="16080" xr2:uid="{EBFABD83-7C37-F648-AEA2-39207326CD30}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Question</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Source Link</t>
-  </si>
-  <si>
-    <t>Occurrence</t>
   </si>
   <si>
     <t>If you rent your home, have you applied for any assistance through the Emergency Rental Assistance Program to help cover your rent?</t>
@@ -64,6 +61,12 @@
   <si>
     <t>• Yes
 • No</t>
+  </si>
+  <si>
+    <t>September 1 - September 3, January 3 - January 24</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
   </si>
 </sst>
 </file>
@@ -444,8 +447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01214301-8553-1743-A0B6-BC985A1247AA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -468,29 +471,29 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2">
-        <v>73</v>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" t="s">
         <v>8</v>
-      </c>
-      <c r="E3">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Data/RentalAssistance.xlsx
+++ b/Data/RentalAssistance.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25019"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Question</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Source Link</t>
+  </si>
+  <si>
+    <t>Dates Used</t>
   </si>
   <si>
     <t>If you rent your home, have you applied for any assistance through the Emergency Rental Assistance Program to help cover your rent?</t>
@@ -56,6 +59,9 @@
 • Not applicable</t>
   </si>
   <si>
+    <t>09/01/2020-09/03/2020 01/03/2022-01/24/2022</t>
+  </si>
+  <si>
     <t>Have you received assistance though the Emergency Rental Assistance Program?</t>
   </si>
   <si>
@@ -63,17 +69,14 @@
 • No</t>
   </si>
   <si>
-    <t>September 1 - September 3, January 3 - January 24</t>
-  </si>
-  <si>
-    <t>Dates Used</t>
+    <t>09/01 /2020-09/03/2020 01/03/2022-01/24/2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -123,13 +126,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,17 +453,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01214301-8553-1743-A0B6-BC985A1247AA}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="40.33203125" customWidth="1"/>
+    <col min="1" max="1" width="40.375" customWidth="1"/>
     <col min="2" max="2" width="49" customWidth="1"/>
+    <col min="5" max="5" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="21" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,29 +478,29 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="84" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="60" customHeight="1">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="84" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
